--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H2">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I2">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J2">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>510.3049764449926</v>
+        <v>378.9142480534664</v>
       </c>
       <c r="R2">
-        <v>4592.744788004934</v>
+        <v>3410.228232481198</v>
       </c>
       <c r="S2">
-        <v>0.001249785392644063</v>
+        <v>0.001027334010302304</v>
       </c>
       <c r="T2">
-        <v>0.001295687644958053</v>
+        <v>0.001053455731729226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H3">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I3">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J3">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>786.309552612526</v>
+        <v>671.9989025833614</v>
       </c>
       <c r="R3">
-        <v>7076.785973512734</v>
+        <v>6047.990123250253</v>
       </c>
       <c r="S3">
-        <v>0.001925746834368866</v>
+        <v>0.001821961911055659</v>
       </c>
       <c r="T3">
-        <v>0.001996475871213388</v>
+        <v>0.001868288403718989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H4">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I4">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J4">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>341.0260135897332</v>
+        <v>385.982909147257</v>
       </c>
       <c r="R4">
-        <v>3069.234122307599</v>
+        <v>3473.846182325313</v>
       </c>
       <c r="S4">
-        <v>0.000835205122366716</v>
+        <v>0.001046498969092471</v>
       </c>
       <c r="T4">
-        <v>0.0008658806259263358</v>
+        <v>0.001073107992321587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H5">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I5">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J5">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>197.8475508766795</v>
+        <v>124.7377801672695</v>
       </c>
       <c r="R5">
-        <v>1187.085305260077</v>
+        <v>748.4266810036172</v>
       </c>
       <c r="S5">
-        <v>0.0004845474578332489</v>
+        <v>0.0003381962135067722</v>
       </c>
       <c r="T5">
-        <v>0.0003348959793180409</v>
+        <v>0.0002311969531460644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H6">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I6">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J6">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>576.3869754769285</v>
+        <v>333.2678850539357</v>
       </c>
       <c r="R6">
-        <v>5187.482779292356</v>
+        <v>2999.410965485421</v>
       </c>
       <c r="S6">
-        <v>0.001411626489476351</v>
+        <v>0.0009035749767032146</v>
       </c>
       <c r="T6">
-        <v>0.001463472859000618</v>
+        <v>0.0009265499133772507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J7">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>83628.29477541312</v>
+        <v>72658.99087509909</v>
       </c>
       <c r="R7">
-        <v>752654.6529787182</v>
+        <v>653930.9178758919</v>
       </c>
       <c r="S7">
-        <v>0.2048136429124347</v>
+        <v>0.196997217348505</v>
       </c>
       <c r="T7">
-        <v>0.2123360604167906</v>
+        <v>0.2020062079804244</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J8">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
         <v>128859.662527104</v>
@@ -948,10 +948,10 @@
         <v>1159736.962743936</v>
       </c>
       <c r="S8">
-        <v>0.3155895618524855</v>
+        <v>0.3493716970270582</v>
       </c>
       <c r="T8">
-        <v>0.3271805692214922</v>
+        <v>0.3582550689904827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J9">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>55887.01914930363</v>
+        <v>74014.44737891584</v>
       </c>
       <c r="R9">
-        <v>502983.1723437327</v>
+        <v>666130.0264102425</v>
       </c>
       <c r="S9">
-        <v>0.136872622050057</v>
+        <v>0.2006722086506528</v>
       </c>
       <c r="T9">
-        <v>0.1418996944332021</v>
+        <v>0.2057746422116279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J10">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>32423.06869231954</v>
+        <v>23919.18825305002</v>
       </c>
       <c r="R10">
-        <v>194538.4121539172</v>
+        <v>143515.1295183001</v>
       </c>
       <c r="S10">
-        <v>0.07940717709368443</v>
+        <v>0.06485107307897874</v>
       </c>
       <c r="T10">
-        <v>0.05488243495608692</v>
+        <v>0.04433334823192044</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J11">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>94457.75000214847</v>
+        <v>63906.03769452517</v>
       </c>
       <c r="R11">
-        <v>850119.7500193364</v>
+        <v>575154.3392507265</v>
       </c>
       <c r="S11">
-        <v>0.231336008120303</v>
+        <v>0.1732657093907507</v>
       </c>
       <c r="T11">
-        <v>0.2398325419064629</v>
+        <v>0.1776712859103204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H12">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I12">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J12">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>50.51859972552067</v>
+        <v>35.04721833942334</v>
       </c>
       <c r="R12">
-        <v>454.6673975296861</v>
+        <v>315.4249650548101</v>
       </c>
       <c r="S12">
-        <v>0.0001237248526040856</v>
+        <v>9.502202556790565E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001282690322969918</v>
+        <v>9.743812282197817E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H13">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I13">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J13">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>77.84219120400313</v>
+        <v>62.15573149777334</v>
       </c>
       <c r="R13">
-        <v>700.5797208360283</v>
+        <v>559.4015834799601</v>
       </c>
       <c r="S13">
-        <v>0.0001906429252873572</v>
+        <v>0.0001685201789874909</v>
       </c>
       <c r="T13">
-        <v>0.000197644879150735</v>
+        <v>0.0001728050922933699</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H14">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I14">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J14">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>33.76051081560789</v>
+        <v>35.70102565861</v>
       </c>
       <c r="R14">
-        <v>303.844597340471</v>
+        <v>321.30923092749</v>
       </c>
       <c r="S14">
-        <v>8.26826999796989E-05</v>
+        <v>9.679466541619728E-05</v>
       </c>
       <c r="T14">
-        <v>8.571947907698105E-05</v>
+        <v>9.925583506526791E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H15">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I15">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J15">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>19.5862899457555</v>
+        <v>11.537471180235</v>
       </c>
       <c r="R15">
-        <v>117.517739674533</v>
+        <v>69.22482708141001</v>
       </c>
       <c r="S15">
-        <v>4.7968685786342E-05</v>
+        <v>3.128105263190207E-05</v>
       </c>
       <c r="T15">
-        <v>3.315365655791924E-05</v>
+        <v>2.138428453916625E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H16">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I16">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J16">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>57.06051135141378</v>
+        <v>30.82521281003666</v>
       </c>
       <c r="R16">
-        <v>513.544602162724</v>
+        <v>277.42691529033</v>
       </c>
       <c r="S16">
-        <v>0.0001397466159953954</v>
+        <v>8.357508237612765E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001448792447372595</v>
+        <v>8.570012155342391E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H17">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I17">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J17">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N17">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O17">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P17">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q17">
-        <v>2153.901202853422</v>
+        <v>645.5376661906439</v>
       </c>
       <c r="R17">
-        <v>12923.40721712053</v>
+        <v>3873.225997143863</v>
       </c>
       <c r="S17">
-        <v>0.005275108777652402</v>
+        <v>0.001750218691473555</v>
       </c>
       <c r="T17">
-        <v>0.003645902360113203</v>
+        <v>0.001196480660183012</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H18">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I18">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J18">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P18">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q18">
-        <v>3318.864540545623</v>
+        <v>1144.851653071451</v>
       </c>
       <c r="R18">
-        <v>19913.18724327374</v>
+        <v>6869.109918428709</v>
       </c>
       <c r="S18">
-        <v>0.008128214723348638</v>
+        <v>0.00310398736915577</v>
       </c>
       <c r="T18">
-        <v>0.005617832445258521</v>
+        <v>0.002121941032134921</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H19">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I19">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J19">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N19">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O19">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P19">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q19">
-        <v>1439.4065799482</v>
+        <v>657.5801982649045</v>
       </c>
       <c r="R19">
-        <v>8636.439479689199</v>
+        <v>3945.481189589427</v>
       </c>
       <c r="S19">
-        <v>0.003525243532264324</v>
+        <v>0.001782869094126924</v>
       </c>
       <c r="T19">
-        <v>0.002436479370568767</v>
+        <v>0.001218801056778168</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H20">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I20">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J20">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N20">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O20">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P20">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q20">
-        <v>835.0772527902614</v>
+        <v>212.5096533282608</v>
       </c>
       <c r="R20">
-        <v>3340.309011161045</v>
+        <v>850.0386133130431</v>
       </c>
       <c r="S20">
-        <v>0.002045183567554534</v>
+        <v>0.0005761683428459223</v>
       </c>
       <c r="T20">
-        <v>0.0009423552398136796</v>
+        <v>0.0002625859585750543</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H21">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I21">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J21">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N21">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O21">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P21">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q21">
-        <v>2432.820875934814</v>
+        <v>567.7721907771931</v>
       </c>
       <c r="R21">
-        <v>14596.92525560888</v>
+        <v>3406.633144663159</v>
       </c>
       <c r="S21">
-        <v>0.005958209568804019</v>
+        <v>0.001539376480788745</v>
       </c>
       <c r="T21">
-        <v>0.00411802888709702</v>
+        <v>0.001052345170907545</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H22">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I22">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J22">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N22">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O22">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P22">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q22">
-        <v>48.150181091694</v>
+        <v>35.15950348005912</v>
       </c>
       <c r="R22">
-        <v>433.3516298252461</v>
+        <v>316.435531320532</v>
       </c>
       <c r="S22">
-        <v>0.0001179243702477439</v>
+        <v>9.532645947193354E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001222555092008312</v>
+        <v>9.775029747784936E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H23">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I23">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J23">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P23">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q23">
-        <v>74.19278490321202</v>
+        <v>62.35486756001244</v>
       </c>
       <c r="R23">
-        <v>667.7350641289082</v>
+        <v>561.193808040112</v>
       </c>
       <c r="S23">
-        <v>0.0001817051823746274</v>
+        <v>0.0001690600880842506</v>
       </c>
       <c r="T23">
-        <v>0.0001883788698550628</v>
+        <v>0.0001733587295008316</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H24">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I24">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J24">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N24">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O24">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P24">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q24">
-        <v>32.17774677745899</v>
+        <v>35.81540548322533</v>
       </c>
       <c r="R24">
-        <v>289.599720997131</v>
+        <v>322.338649349028</v>
       </c>
       <c r="S24">
-        <v>7.880636040593806E-05</v>
+        <v>9.710477854739619E-05</v>
       </c>
       <c r="T24">
-        <v>8.170076888645934E-05</v>
+        <v>9.957383335235845E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H25">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I25">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J25">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N25">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O25">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P25">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q25">
-        <v>18.6680433132855</v>
+        <v>11.574435214342</v>
       </c>
       <c r="R25">
-        <v>112.008259879713</v>
+        <v>69.44661128605202</v>
       </c>
       <c r="S25">
-        <v>4.571981250256497E-05</v>
+        <v>3.13812716381579E-05</v>
       </c>
       <c r="T25">
-        <v>3.159934312884772E-05</v>
+        <v>2.145279603624489E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H26">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I26">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J26">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N26">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O26">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P26">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q26">
-        <v>54.385394086196</v>
+        <v>30.92397138545289</v>
       </c>
       <c r="R26">
-        <v>489.4685467757641</v>
+        <v>278.315742469076</v>
       </c>
       <c r="S26">
-        <v>0.0001331949995385657</v>
+        <v>8.384284228184586E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001380869998065847</v>
+        <v>8.597468971195605E-05</v>
       </c>
     </row>
   </sheetData>
